--- a/DATA_goal/Junction_Flooding_173.xlsx
+++ b/DATA_goal/Junction_Flooding_173.xlsx
@@ -448,29 +448,29 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41605.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.59</v>
+        <v>4.16</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.56</v>
+        <v>3.36</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.19</v>
+        <v>4.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.73</v>
+        <v>2.37</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>226.13</v>
+        <v>22.61</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.66</v>
+        <v>4.27</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.83</v>
+        <v>2.48</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.62</v>
+        <v>4.36</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41605.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.87</v>
+        <v>3.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.98</v>
+        <v>2.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.26</v>
+        <v>4.43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>163.22</v>
+        <v>16.32</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.39</v>
+        <v>3.14</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.79</v>
+        <v>2.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.36</v>
+        <v>2.14</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.29</v>
+        <v>4.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41605.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.74</v>
+        <v>2.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>72.81</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>9.74</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41605.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.35</v>
+        <v>4.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.67</v>
+        <v>3.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>56.48</v>
+        <v>5.65</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.68</v>
+        <v>2.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>225.01</v>
+        <v>22.5</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.6</v>
+        <v>4.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.6</v>
+        <v>2.86</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.07</v>
+        <v>5.11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41605.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>26.49</v>
+        <v>2.65</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>39.42</v>
+        <v>3.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>138.04</v>
+        <v>13.8</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>26.79</v>
+        <v>2.68</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>18.85</v>
+        <v>1.89</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.95</v>
+        <v>0.7</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>35.91</v>
+        <v>3.59</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41605.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X7" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>27.05</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="R7" s="4" t="n">
+      <c r="Y7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>89.95999999999999</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>5.21</v>
-      </c>
       <c r="AB7" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>24.63</v>
+        <v>2.46</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41605.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>44.35</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
       <c r="K8" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>172.35</v>
+        <v>17.24</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.96</v>
+        <v>3.3</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>22.16</v>
+        <v>2.22</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.73</v>
+        <v>2.17</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>40.11</v>
+        <v>4.01</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="9">
@@ -1383,88 +1383,88 @@
         <v>41605.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P9" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W9" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="X9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z9" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.18</v>
-      </c>
       <c r="AA9" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="4" t="n">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AG9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41605.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>24.39</v>
+        <v>2.44</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.85</v>
+        <v>0.59</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>127.14</v>
+        <v>12.71</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>24.4</v>
+        <v>2.44</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>26.8</v>
+        <v>2.68</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_173.xlsx
+++ b/DATA_goal/Junction_Flooding_173.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,29 +448,29 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41605.34027777778</v>
+        <v>44854.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.96</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.32</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.16</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.36</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.92</v>
+        <v>0.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.64</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.71</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.36</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.77</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41605.34722222222</v>
+        <v>44854.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.09</v>
+        <v>4.56</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.73</v>
-      </c>
       <c r="J3" s="4" t="n">
-        <v>0.75</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.91</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.35</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.03</v>
+        <v>5.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41605.35416666666</v>
+        <v>44854.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.45</v>
+        <v>2.38</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.16</v>
+        <v>2.02</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.37</v>
+        <v>3.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.98</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.01</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.74</v>
+        <v>1.23</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.28</v>
+        <v>12.41</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.49</v>
+        <v>2.4</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.62</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.17</v>
+        <v>3.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41605.36111111111</v>
+        <v>44854.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.24</v>
+        <v>3.64</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.47</v>
+        <v>3.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.65</v>
+        <v>5.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.36</v>
+        <v>2.01</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="AB5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>1.55</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="X5" s="4" t="n">
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>1.5</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41605.36805555555</v>
+        <v>44854.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.22</v>
+        <v>19.33</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.89</v>
+        <v>14.59</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.65</v>
+        <v>41.67</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.16</v>
+        <v>34.77</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.96</v>
+        <v>15.01</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.94</v>
+        <v>58.64</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.48</v>
+        <v>23.07</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.65</v>
+        <v>10.45</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.96</v>
+        <v>15.75</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.06</v>
+        <v>16.83</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.12</v>
+        <v>17.7</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.31</v>
+        <v>4.81</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.95</v>
+        <v>14.94</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.36</v>
+        <v>21.49</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>12.44</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.41</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>13.8</v>
+        <v>221.45</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.68</v>
+        <v>41.87</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.88</v>
+        <v>13.76</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.79</v>
+        <v>28.35</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>15.09</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>1.97</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.89</v>
+        <v>29.04</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.78</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.7</v>
+        <v>11.16</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.82</v>
+        <v>12.52</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.11</v>
+        <v>17.71</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.59</v>
+        <v>52.97</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.49</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41605.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41605.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41605.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41605.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41605.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>30.91</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>41.97</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>162.38</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>38.08</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.81</v>
+        <v>17.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_173.xlsx
+++ b/DATA_goal/Junction_Flooding_173.xlsx
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -468,7 +468,7 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>44854.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44854.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.36</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.56</v>
+        <v>45.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.85</v>
+        <v>38.49</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.8</v>
+        <v>58.01</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.5</v>
+        <v>25.02</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.72</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.27</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>24.41</v>
+        <v>244.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.58</v>
+        <v>45.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.08</v>
+        <v>30.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.08</v>
+        <v>30.78</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.21</v>
+        <v>52.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44854.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.81</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.02</v>
+        <v>20.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.65</v>
+        <v>36.47</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.41</v>
+        <v>124.07</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.03</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.3</v>
+        <v>32.97</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44854.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.7</v>
+        <v>16.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.64</v>
+        <v>36.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.05</v>
+        <v>30.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.05</v>
+        <v>50.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.28</v>
+        <v>192.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.65</v>
+        <v>36.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.52</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.54</v>
+        <v>45.41</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_173.xlsx
+++ b/DATA_goal/Junction_Flooding_173.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>21.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.36</v>
+        <v>16.363</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.094</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.63</v>
+        <v>45.629</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>38.49</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.39</v>
+        <v>16.392</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>58.01</v>
+        <v>58.008</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.02</v>
+        <v>25.024</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.39</v>
+        <v>11.394</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.52</v>
+        <v>17.515</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>18.72</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.27</v>
+        <v>19.274</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.22</v>
+        <v>5.217</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.35</v>
+        <v>16.346</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.48</v>
+        <v>23.483</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.56</v>
+        <v>13.564</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.09</v>
+        <v>244.089</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.81</v>
+        <v>45.805</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.99</v>
+        <v>14.987</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.83</v>
+        <v>30.827</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.84</v>
+        <v>16.836</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.19</v>
+        <v>2.192</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.78</v>
+        <v>30.782</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.87</v>
+        <v>12.866</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.87</v>
+        <v>12.866</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.54</v>
+        <v>13.536</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.54</v>
+        <v>19.536</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>52.1</v>
+        <v>52.104</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.974</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.78</v>
+        <v>18.778</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44854.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.22</v>
+        <v>11.218</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.59</v>
+        <v>8.587</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.81</v>
+        <v>23.806</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.2</v>
+        <v>20.204</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.47</v>
+        <v>36.466</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.023</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.99</v>
+        <v>5.987</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.204000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.77</v>
+        <v>9.775</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.08</v>
+        <v>10.084</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.73</v>
+        <v>2.734</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.5</v>
+        <v>8.502000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.32</v>
+        <v>12.316</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.1</v>
+        <v>7.103</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>124.07</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.03</v>
+        <v>24.025</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.78</v>
+        <v>7.782</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.19</v>
+        <v>16.195</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.856999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.142</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.3</v>
+        <v>18.301</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.63</v>
+        <v>6.627</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.86</v>
+        <v>6.864</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.03</v>
+        <v>7.034</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.25</v>
+        <v>10.251</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.97</v>
+        <v>32.967</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.74</v>
+        <v>4.744</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.77</v>
+        <v>9.766999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44854.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>58.64</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.45</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.97</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_173.xlsx
+++ b/DATA_goal/Junction_Flooding_173.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -967,88 +967,88 @@
         <v>44854.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.95</v>
+        <v>16.951</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.83</v>
+        <v>12.834</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.41</v>
+        <v>36.407</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.5</v>
+        <v>30.495</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.09</v>
+        <v>13.092</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.47</v>
+        <v>50.473</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.11</v>
+        <v>20.106</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>9.125999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.83</v>
+        <v>13.831</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.755</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>4.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.04</v>
+        <v>13.042</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.77</v>
+        <v>18.772</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.87</v>
+        <v>10.866</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.79</v>
+        <v>192.786</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.54</v>
+        <v>36.544</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.99</v>
+        <v>11.992</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>24.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.26</v>
+        <v>13.261</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.24</v>
+        <v>25.241</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.408</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.92</v>
+        <v>9.914999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.898</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>15.52</v>
@@ -1057,13 +1057,117 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.41</v>
+        <v>45.409</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.08</v>
+        <v>7.077</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.02</v>
+        <v>15.025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44854.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>58.64</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>221.45</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>52.97</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>17.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_173.xlsx
+++ b/DATA_goal/Junction_Flooding_173.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -967,88 +967,88 @@
         <v>44854.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.951</v>
+        <v>16.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.834</v>
+        <v>12.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.407</v>
+        <v>36.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.495</v>
+        <v>30.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.092</v>
+        <v>13.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.473</v>
+        <v>50.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.106</v>
+        <v>20.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.125999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.831</v>
+        <v>13.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.755</v>
+        <v>14.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.457</v>
+        <v>15.46</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>4.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.042</v>
+        <v>13.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.772</v>
+        <v>18.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.866</v>
+        <v>10.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.786</v>
+        <v>192.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.544</v>
+        <v>36.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.992</v>
+        <v>11.99</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>24.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.261</v>
+        <v>13.26</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.241</v>
+        <v>25.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.408</v>
+        <v>10.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.914999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.898</v>
+        <v>10.9</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>15.52</v>
@@ -1057,117 +1057,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.409</v>
+        <v>45.41</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.077</v>
+        <v>7.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44854.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>58.64</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.45</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.97</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.22</v>
+        <v>15.02</v>
       </c>
     </row>
   </sheetData>
